--- a/src/test/java/techproed/resources/mysmoketestdata.xlsx
+++ b/src/test/java/techproed/resources/mysmoketestdata.xlsx
@@ -19,25 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t/>
   </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -48,6 +39,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,9 +70,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,10 +292,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -303,28 +303,35 @@
     <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/techproed/resources/mysmoketestdata.xlsx
+++ b/src/test/java/techproed/resources/mysmoketestdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hakan Batirhan.DESKTOP-KA8SOKR\IdeaProjects\Kitap-Yurdu-Cucumber-Project\src\test\java\techproed\resources\"/>
     </mc:Choice>
@@ -19,15 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t/>
   </si>
+  <si>
+    <t>On Kişiydiler (On Küç…</t>
+  </si>
+  <si>
+    <t>Şeker Portakalı (Ciltsiz)</t>
+  </si>
+  <si>
+    <t>İnsanlığımı Yitirirken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -295,31 +305,42 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2">
+        <v>1111111111</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>

--- a/src/test/java/techproed/resources/mysmoketestdata.xlsx
+++ b/src/test/java/techproed/resources/mysmoketestdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t/>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>İnsanlığımı Yitirirken</t>
+  </si>
+  <si>
+    <t>Nietzsche Ağladığında</t>
+  </si>
+  <si>
+    <t>Saatleri Ayarlama Enst…</t>
+  </si>
+  <si>
+    <t>Veronika Ölmek İstiyor</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -331,7 +340,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -339,7 +348,7 @@
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
